--- a/template_inventaris.xlsx
+++ b/template_inventaris.xlsx
@@ -16,20 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Daftar Inventaris Barang2 IT Th.  ……………</t>
   </si>
   <si>
-    <t xml:space="preserve">Daerah      </t>
-  </si>
-  <si>
     <t>: ………………………….</t>
   </si>
   <si>
-    <t xml:space="preserve">Divisi        </t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -112,6 +106,15 @@
   </si>
   <si>
     <t xml:space="preserve">                                                          MM Ethical             MM Ethical                     MM OTC</t>
+  </si>
+  <si>
+    <t>Gambar</t>
+  </si>
+  <si>
+    <t>Daerah      :</t>
+  </si>
+  <si>
+    <t>Divisi         :</t>
   </si>
 </sst>
 </file>
@@ -926,15 +929,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25">
+    <row r="1" spans="1:14" ht="26.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -942,39 +961,41 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="19"/>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="26.25">
+      <c r="M1" s="19"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="26.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
-        <v>3</v>
-      </c>
+      <c r="F2" s="19"/>
       <c r="G2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+      <c r="M2" s="19"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -988,39 +1009,43 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75">
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="D4" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="F4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="G4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="H4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="I4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="26"/>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75">
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75">
       <c r="A5" s="32"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -1028,24 +1053,25 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="M5" s="42"/>
+      <c r="N5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="32"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -1053,18 +1079,19 @@
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="H6" s="29"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="44"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="32"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -1072,14 +1099,15 @@
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1">
+      <c r="H7" s="29"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="33"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -1087,369 +1115,391 @@
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="45"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="H8" s="30"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="45"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="18"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="18"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="18"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="18"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="18"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="18"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="18"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="18"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="18"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1">
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75">
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="F27" s="21"/>
+      <c r="G27" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="23"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75">
+      <c r="K27" s="22"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="23"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75">
+      <c r="N28" s="21"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="I29" s="21"/>
       <c r="J29" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75">
+      <c r="N29" s="21"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="21"/>
+        <v>25</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="I30" s="21"/>
       <c r="J30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="21"/>
+      <c r="M30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="M30" s="24"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75">
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -1461,52 +1511,54 @@
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="24" t="s">
+      <c r="L31" s="21"/>
+      <c r="M31" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="24"/>
+    </row>
+    <row r="35" spans="10:12" ht="15.75">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="10:12" ht="15.75">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="24"/>
+    </row>
+    <row r="42" spans="10:12" ht="31.5">
+      <c r="J42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="10:12" ht="47.25">
+      <c r="J43" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="35" spans="9:11" ht="15.75">
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="24"/>
-    </row>
-    <row r="36" spans="9:11" ht="15.75">
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="24"/>
-    </row>
-    <row r="42" spans="9:11" ht="110.25">
-      <c r="I42" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="9:11" ht="110.25">
-      <c r="I43" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J43" s="1"/>
       <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="F4:F8"/>
+  <mergeCells count="16">
+    <mergeCell ref="I4:N4"/>
     <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
     <mergeCell ref="E4:E8"/>
-    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="F4:F8"/>
     <mergeCell ref="I5:I8"/>
     <mergeCell ref="J5:J8"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:N8"/>
     <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="D4:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
